--- a/trip_adv/Список для парсинга.xlsx
+++ b/trip_adv/Список для парсинга.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb_user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\projects\trip_adv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1680" windowWidth="24045" windowHeight="14925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
